--- a/data/data_objectifs.xlsx
+++ b/data/data_objectifs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mregie01\SGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50387363-380B-4468-860C-D5DF24756F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE82202-591B-4482-8C2E-C5F8954F7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE44A597-042F-42EB-8C10-6636C5C492AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Tourisme</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Avoir au moins 40 Sous</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C5C3C5-17BD-4122-8F8B-862A13DA5DD4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,36 +569,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -600,13 +597,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -614,30 +614,27 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -645,13 +642,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -659,33 +659,30 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -693,16 +690,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -710,27 +707,30 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -738,16 +738,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -755,33 +752,33 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -789,12 +786,29 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>53</v>
       </c>
     </row>
